--- a/downloaded_files/CMPS201_Tutorial-35671.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35671.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -256,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Tarek Mohamed Kamal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230107</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عاطف محمود احمد خليل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed atef</x:t>
   </x:si>
   <x:si>
     <x:t>1220277</x:t>
@@ -434,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E33" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -734,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T33"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -744,7 +753,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.730625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="45.210625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1625,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45922.4445815972</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1721,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1753,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1785,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1817,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4194018519</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1834,6 +1843,38 @@
       <x:c r="R33" s="2" t="s"/>
       <x:c r="S33" s="2" t="s"/>
       <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.4194018519</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35671.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35671.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,6 +166,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrhman Mohamed abdelhamid farghaly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220014</x:t>
+  </x:si>
+  <x:si>
+    <x:t>علاءالدين اسامه احمد علي احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Alaa Eldin Usama Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1210257</x:t>
@@ -443,7 +452,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +752,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T35"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1314,7 +1323,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45918.1092825579</x:v>
+        <x:v>45927.0690451736</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4144332523</x:v>
+        <x:v>45918.1092825579</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4178459144</x:v>
+        <x:v>45907.4144332523</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4202964931</x:v>
+        <x:v>45907.4178459144</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4144299769</x:v>
+        <x:v>45907.4202964931</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6652185532</x:v>
+        <x:v>45907.4144299769</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.420525544</x:v>
+        <x:v>45906.6652185532</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.420525544</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45922.4445815972</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45922.4445815972</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.4148939815</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1771,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1803,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1835,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1867,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4194018519</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1885,38 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45907.4194018519</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1929,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Microprocessor Systems (CMPS201) Location : [3708]3708-45-الجيزة الرئيسي Time : Tuesday(13:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/CMPS201_Tutorial-35671.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35671.xlsx
@@ -939,7 +939,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.5066521991</x:v>
+        <x:v>45927.4705346412</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>

--- a/downloaded_files/CMPS201_Tutorial-35671.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35671.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -319,6 +319,15 @@
   </x:si>
   <x:si>
     <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين سامى حموده بكر</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Samy Hammouda Bakr</x:t>
   </x:si>
   <x:si>
     <x:t>1230290</x:t>
@@ -452,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E35" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -752,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T35"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1867,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1899,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4194018519</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1916,6 +1925,38 @@
       <x:c r="R35" s="2" t="s"/>
       <x:c r="S35" s="2" t="s"/>
       <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.4194018519</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35671.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35671.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Ahmed Medhat Abdel Aziz Ali Awad</x:t>
   </x:si>
   <x:si>
-    <x:t>1230136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اكمل محمد عماد عصمت نورالدين عصمت</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Akmal mohamed emad esmat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230344</x:t>
   </x:si>
   <x:si>
@@ -141,6 +132,12 @@
     <x:t>Rafik Ehab Elamir Ghaly Morcos</x:t>
   </x:si>
   <x:si>
+    <x:t>4240017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد خالد سيف الله محمد</x:t>
+  </x:si>
+  <x:si>
     <x:t>1230053</x:t>
   </x:si>
   <x:si>
@@ -276,15 +273,6 @@
     <x:t>Mohamed atef</x:t>
   </x:si>
   <x:si>
-    <x:t>1220277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد كريم احمد على الحملي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Kareem Ahmed El Hemaly</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230341</x:t>
   </x:si>
   <x:si>
@@ -310,6 +298,15 @@
   </x:si>
   <x:si>
     <x:t>Mariam Ashraf Mohamed Mohamed Ghamry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230116</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفي سمير محمد يونس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Samir Mohamed Younis</x:t>
   </x:si>
   <x:si>
     <x:t>1230272</x:t>
@@ -948,7 +945,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45927.4705346412</x:v>
+        <x:v>45909.4184613426</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -980,7 +977,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45909.4184613426</x:v>
+        <x:v>45907.4193179745</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1012,7 +1009,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.4193179745</x:v>
+        <x:v>45907.4200304745</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1044,7 +1041,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4200304745</x:v>
+        <x:v>45907.4144706018</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1076,7 +1073,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4144706018</x:v>
+        <x:v>45907.4146253472</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1108,7 +1105,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4146253472</x:v>
+        <x:v>45909.6483199074</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1140,7 +1137,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.6483199074</x:v>
+        <x:v>45907.4177506134</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1172,7 +1169,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4177506134</x:v>
+        <x:v>45907.4142248032</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1200,11 +1197,9 @@
       <x:c r="C13" s="2" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D13" s="2" t="s">
-        <x:v>40</x:v>
-      </x:c>
+      <x:c r="D13" s="2" t="s"/>
       <x:c r="E13" s="3">
-        <x:v>45907.4142248032</x:v>
+        <x:v>45907.6849449884</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1227,13 +1222,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="C14" s="2" t="s">
+      <x:c r="D14" s="2" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="D14" s="2" t="s">
-        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45909.4214495718</x:v>
@@ -1259,13 +1254,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C15" s="2" t="s">
+      <x:c r="D15" s="2" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="D15" s="2" t="s">
-        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45907.4161412037</x:v>
@@ -1291,13 +1286,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="C16" s="2" t="s">
+      <x:c r="D16" s="2" t="s">
         <x:v>48</x:v>
-      </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.4141627662</x:v>
@@ -1323,13 +1318,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45927.0690451736</x:v>
@@ -1355,13 +1350,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="C18" s="2" t="s">
+      <x:c r="D18" s="2" t="s">
         <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45918.1092825579</x:v>
@@ -1387,13 +1382,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="s">
         <x:v>56</x:v>
       </x:c>
-      <x:c r="C19" s="2" t="s">
+      <x:c r="D19" s="2" t="s">
         <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45907.4144332523</x:v>
@@ -1419,13 +1414,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="C20" s="2" t="s">
+      <x:c r="D20" s="2" t="s">
         <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45907.4178459144</x:v>
@@ -1451,13 +1446,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="C21" s="2" t="s">
+      <x:c r="D21" s="2" t="s">
         <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.4202964931</x:v>
@@ -1483,13 +1478,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.4144299769</x:v>
@@ -1515,13 +1510,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="C23" s="2" t="s">
+      <x:c r="D23" s="2" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45906.6652185532</x:v>
@@ -1547,13 +1542,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="C24" s="2" t="s">
+      <x:c r="D24" s="2" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.420525544</x:v>
@@ -1579,13 +1574,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
         <x:v>74</x:v>
       </x:c>
-      <x:c r="C25" s="2" t="s">
+      <x:c r="D25" s="2" t="s">
         <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.4148712963</x:v>
@@ -1611,13 +1606,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
         <x:v>77</x:v>
       </x:c>
-      <x:c r="C26" s="2" t="s">
+      <x:c r="D26" s="2" t="s">
         <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.4203634606</x:v>
@@ -1643,13 +1638,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="C27" s="2" t="s">
+      <x:c r="D27" s="2" t="s">
         <x:v>81</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.4144954861</x:v>
@@ -1675,13 +1670,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="C28" s="2" t="s">
+      <x:c r="D28" s="2" t="s">
         <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
         <x:v>45922.4445815972</x:v>
@@ -1707,16 +1702,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>87</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4148939815</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1739,16 +1734,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>89</x:v>
       </x:c>
-      <x:c r="C30" s="2" t="s">
+      <x:c r="D30" s="2" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1771,16 +1766,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>92</x:v>
       </x:c>
-      <x:c r="C31" s="2" t="s">
+      <x:c r="D31" s="2" t="s">
         <x:v>93</x:v>
       </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>94</x:v>
-      </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1803,16 +1798,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
         <x:v>95</x:v>
       </x:c>
-      <x:c r="C32" s="2" t="s">
+      <x:c r="D32" s="2" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="D32" s="2" t="s">
-        <x:v>97</x:v>
-      </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1835,13 +1830,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B33" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
         <x:v>98</x:v>
       </x:c>
-      <x:c r="C33" s="2" t="s">
+      <x:c r="D33" s="2" t="s">
         <x:v>99</x:v>
-      </x:c>
-      <x:c r="D33" s="2" t="s">
-        <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
         <x:v>45907.4192483449</x:v>
@@ -1867,13 +1862,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B34" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
         <x:v>101</x:v>
       </x:c>
-      <x:c r="C34" s="2" t="s">
+      <x:c r="D34" s="2" t="s">
         <x:v>102</x:v>
-      </x:c>
-      <x:c r="D34" s="2" t="s">
-        <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
         <x:v>45928.9277546643</x:v>
@@ -1899,13 +1894,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B35" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="C35" s="2" t="s">
+      <x:c r="D35" s="2" t="s">
         <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
         <x:v>45907.414475463</x:v>
@@ -1931,13 +1926,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
         <x:v>107</x:v>
       </x:c>
-      <x:c r="C36" s="2" t="s">
+      <x:c r="D36" s="2" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
         <x:v>45907.4194018519</x:v>

--- a/downloaded_files/CMPS201_Tutorial-35671.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35671.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Omar Waleed Elsayed Abo Elnasr</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220328</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمرو عماد صبحى حسن محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMR EMAD SOBHY HASSAN MOHAMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230086</x:t>
@@ -458,7 +467,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -758,7 +767,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1551,7 +1560,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.420525544</x:v>
+        <x:v>45935.4222297454</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1583,7 +1592,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.4148712963</x:v>
+        <x:v>45907.420525544</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1615,7 +1624,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.4203634606</x:v>
+        <x:v>45907.4148712963</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1647,7 +1656,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4144954861</x:v>
+        <x:v>45907.4203634606</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1679,7 +1688,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45922.4445815972</x:v>
+        <x:v>45907.4144954861</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1711,7 +1720,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4169326389</x:v>
+        <x:v>45922.4445815972</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1743,7 +1752,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.414771412</x:v>
+        <x:v>45907.4169326389</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1775,7 +1784,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.4200175116</x:v>
+        <x:v>45907.414771412</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1807,7 +1816,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.415046956</x:v>
+        <x:v>45907.4200175116</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1839,7 +1848,7 @@
         <x:v>99</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45907.415046956</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1871,7 +1880,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45928.9277546643</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1903,7 +1912,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.414475463</x:v>
+        <x:v>45928.9277546643</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1935,7 +1944,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4194018519</x:v>
+        <x:v>45907.414475463</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1952,6 +1961,38 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
+    </x:row>
+    <x:row r="37" spans="1:20">
+      <x:c r="A37" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="D37" s="2" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="E37" s="3">
+        <x:v>45907.4194018519</x:v>
+      </x:c>
+      <x:c r="F37" s="2" t="s"/>
+      <x:c r="G37" s="2" t="s"/>
+      <x:c r="H37" s="2" t="s"/>
+      <x:c r="I37" s="2" t="s"/>
+      <x:c r="J37" s="2" t="s"/>
+      <x:c r="K37" s="2" t="s"/>
+      <x:c r="L37" s="2" t="s"/>
+      <x:c r="M37" s="2" t="s"/>
+      <x:c r="N37" s="2" t="s"/>
+      <x:c r="O37" s="2" t="s"/>
+      <x:c r="P37" s="2" t="s"/>
+      <x:c r="Q37" s="2" t="s"/>
+      <x:c r="R37" s="2" t="s"/>
+      <x:c r="S37" s="2" t="s"/>
+      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS201_Tutorial-35671.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35671.xlsx
@@ -144,7 +144,7 @@
     <x:t>عبدالرحمن احمد محمد صلاح الدين علي رجب</x:t>
   </x:si>
   <x:si>
-    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali</x:t>
+    <x:t>AbdelRahman Ahmed Mohamed Salah Eldin Ali Rajab</x:t>
   </x:si>
   <x:si>
     <x:t>1230057</x:t>
@@ -153,7 +153,7 @@
     <x:t>عبدالرحمن عصام محمد اسماعيل</x:t>
   </x:si>
   <x:si>
-    <x:t>abdalrahman esam mohamed</x:t>
+    <x:t>Abdalrahman Esam Mohamed Ismail Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1230060</x:t>
@@ -198,7 +198,7 @@
     <x:t>عمر احمد رأفت احمد محمود</x:t>
   </x:si>
   <x:si>
-    <x:t>Omar Ahmed Raafat Ahmed</x:t>
+    <x:t>Omar Ahmed Raafat Ahmed Mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230211</x:t>
@@ -776,7 +776,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.730625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="45.210625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="47.250625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>

--- a/downloaded_files/CMPS201_Tutorial-35671.xlsx
+++ b/downloaded_files/CMPS201_Tutorial-35671.xlsx
@@ -90,10 +90,10 @@
     <x:t>1230028</x:t>
   </x:si>
   <x:si>
-    <x:t>حبيبه حسين محمد احمد احمد بدر</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Habiba Hussein</x:t>
+    <x:t xml:space="preserve">حبيبه حسين محمد احمد </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HABIBA HUSSEIN MOHAMED AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1230177</x:t>
